--- a/data/trans_media/P33_1_2023-Estudios-trans_media.xlsx
+++ b/data/trans_media/P33_1_2023-Estudios-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al dia y entre semana</t>
+          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,17</t>
+          <t>6,97; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,26</t>
+          <t>7,14; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,15</t>
+          <t>6,99; 7,15</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,08</t>
+          <t>6,92; 7,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,07</t>
+          <t>6,91; 7,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,06</t>
+          <t>6,93; 7,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,18</t>
+          <t>7,09; 7,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,02</t>
+          <t>6,86; 7,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,09</t>
+          <t>7,0; 7,09</t>
         </is>
       </c>
     </row>
